--- a/biology/Médecine/Philipp_Franz_von_Walther/Philipp_Franz_von_Walther.xlsx
+++ b/biology/Médecine/Philipp_Franz_von_Walther/Philipp_Franz_von_Walther.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Franz von Walther, né le 3 janvier 1782 à Burrweiler et mort le 29 décembre 1849 à Munich, est un ophtalmologue et chirurgien allemand. Il est surtout connu pour avoir été un pionnier en ophtalmologie et chirurgie oculaire. En 1826, il décrit la première tarsorraphie (en).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walther étudie la médecine à l'université de Vienne sous la direction de Georg Joseph Beer (1763–1821). Il obtient son doctorat de l'université d'Ingolstadt en 1803. Il enseigne par la suite aux universités de Bamberg, Landshut, Bonn (1818–1830) et Munich[1]. Parmi ses étudiants les plus connus, on compte Johannes Peter Müller (1801–1858), Johann Lukas Schönlein (1793–1864) et Cajetan von Textor (1782–1860).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walther étudie la médecine à l'université de Vienne sous la direction de Georg Joseph Beer (1763–1821). Il obtient son doctorat de l'université d'Ingolstadt en 1803. Il enseigne par la suite aux universités de Bamberg, Landshut, Bonn (1818–1830) et Munich. Parmi ses étudiants les plus connus, on compte Johannes Peter Müller (1801–1858), Johann Lukas Schönlein (1793–1864) et Cajetan von Textor (1782–1860).
 Avec Karl Ferdinand von Gräfe (1787–1840), il a édité le Journal der Chirurgie und Augenheilkunde, une revue de chirurgie et d'ophtalmolotie.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Ueber die therapeutische Indication und den Techniscismus der galvanischen Operation, 1803.
 (de) Ueber das Alterthum der Knochenkrankheiten, 1825.
